--- a/pearson_tables/tp_netherlands_cumul-3-6.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-3-6.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.759641524670035</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5821901351591628</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8244444937496485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7836348197014478</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.7593756767595368</v>
+        <v>-0.6989857865567108</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6056252575154905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5995244019957309</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7311948487412598</v>
+        <v>0.6484505050432346</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7336919981211043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6790298097478752</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7479314102776208</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7852147945492592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6673235954562722</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5441230479993241</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5326002470160427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6400625604868062</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5896928863945342</v>
+        <v>0.666829450509164</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5948700609566161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7368980813817898</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6715414022601313</v>
+        <v>-0.6960145273620598</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6948420512149918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7462097006687759</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6352353787612036</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.633172973366407</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
